--- a/Code/Results/Cases/Case_5_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9907846933286635</v>
+        <v>0.8699934474986719</v>
       </c>
       <c r="C2">
-        <v>0.1189864774994334</v>
+        <v>0.09993956321308417</v>
       </c>
       <c r="D2">
-        <v>0.0437499725256103</v>
+        <v>0.01606691811218752</v>
       </c>
       <c r="E2">
-        <v>0.05189033385260089</v>
+        <v>0.09030836886861948</v>
       </c>
       <c r="F2">
-        <v>7.096020122547486</v>
+        <v>5.465644298827414</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2836037778631351</v>
+        <v>0.2594876274752664</v>
       </c>
       <c r="K2">
-        <v>1.017013882772943</v>
+        <v>0.8912979301012172</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.86381945221612</v>
+        <v>0.8491418512583948</v>
       </c>
       <c r="C3">
-        <v>0.1018783934988363</v>
+        <v>0.09828364450103777</v>
       </c>
       <c r="D3">
-        <v>0.03745180627215916</v>
+        <v>0.01618851453896752</v>
       </c>
       <c r="E3">
-        <v>0.04611140139095227</v>
+        <v>0.09047103471657181</v>
       </c>
       <c r="F3">
-        <v>6.405658329261939</v>
+        <v>5.267556758085533</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2532863540174475</v>
+        <v>0.2525470512218391</v>
       </c>
       <c r="K3">
-        <v>0.8836136151629432</v>
+        <v>0.8712170596348301</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7880713750927839</v>
+        <v>0.8371533906245361</v>
       </c>
       <c r="C4">
-        <v>0.09176551405650457</v>
+        <v>0.09740540495576511</v>
       </c>
       <c r="D4">
-        <v>0.03371604587389854</v>
+        <v>0.01631623572598784</v>
       </c>
       <c r="E4">
-        <v>0.04273120044367218</v>
+        <v>0.09065840970488281</v>
       </c>
       <c r="F4">
-        <v>5.989510357149953</v>
+        <v>5.146572118990235</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2351262461475301</v>
+        <v>0.2484037763694573</v>
       </c>
       <c r="K4">
-        <v>0.80416960581735</v>
+        <v>0.8597948119227965</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7576977269719691</v>
+        <v>0.8324722751297315</v>
       </c>
       <c r="C5">
-        <v>0.0877311019979885</v>
+        <v>0.09708217566171129</v>
       </c>
       <c r="D5">
-        <v>0.03222136153274135</v>
+        <v>0.01638145929810975</v>
       </c>
       <c r="E5">
-        <v>0.04139212486354893</v>
+        <v>0.09075674096207464</v>
       </c>
       <c r="F5">
-        <v>5.821606172594755</v>
+        <v>5.097426765661965</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2278272180899279</v>
+        <v>0.246744946562103</v>
       </c>
       <c r="K5">
-        <v>0.7723458681379043</v>
+        <v>0.8553676606779845</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7526823750994538</v>
+        <v>0.8317073021643466</v>
       </c>
       <c r="C6">
-        <v>0.08706610188782804</v>
+        <v>0.09703059227260269</v>
       </c>
       <c r="D6">
-        <v>0.03197469371144379</v>
+        <v>0.01639308057799482</v>
       </c>
       <c r="E6">
-        <v>0.04117198385083043</v>
+        <v>0.09077439521360731</v>
       </c>
       <c r="F6">
-        <v>5.793819899810643</v>
+        <v>5.089275559796164</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2266209828055565</v>
+        <v>0.246471281852024</v>
       </c>
       <c r="K6">
-        <v>0.7670928916342064</v>
+        <v>0.8546462567320816</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7876598209202825</v>
+        <v>0.8370894330473675</v>
       </c>
       <c r="C7">
-        <v>0.09171076841933257</v>
+        <v>0.09740090565263415</v>
       </c>
       <c r="D7">
-        <v>0.03369578274816121</v>
+        <v>0.0163170622239619</v>
       </c>
       <c r="E7">
-        <v>0.04271299066147449</v>
+        <v>0.09065964689700934</v>
       </c>
       <c r="F7">
-        <v>5.987239477505199</v>
+        <v>5.145908698422119</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2350274148767681</v>
+        <v>0.2483812852033367</v>
       </c>
       <c r="K7">
-        <v>0.8037382785209388</v>
+        <v>0.8597341855507352</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9465099495381253</v>
+        <v>0.8626344308604246</v>
       </c>
       <c r="C8">
-        <v>0.1129988785010596</v>
+        <v>0.09933975414939766</v>
       </c>
       <c r="D8">
-        <v>0.0415477255699841</v>
+        <v>0.01609773145044713</v>
       </c>
       <c r="E8">
-        <v>0.04986041729486246</v>
+        <v>0.09034627862544653</v>
       </c>
       <c r="F8">
-        <v>6.856209914750821</v>
+        <v>5.39720768037958</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2730476935506374</v>
+        <v>0.2570698762938122</v>
       </c>
       <c r="K8">
-        <v>0.9704622091820738</v>
+        <v>0.8841852675653001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.278635114022649</v>
+        <v>0.9192199988744676</v>
       </c>
       <c r="C9">
-        <v>0.1584512148363473</v>
+        <v>0.104248904238915</v>
       </c>
       <c r="D9">
-        <v>0.05825738790775858</v>
+        <v>0.01609618782162414</v>
       </c>
       <c r="E9">
-        <v>0.0654068659041549</v>
+        <v>0.09042750438570835</v>
       </c>
       <c r="F9">
-        <v>8.635037368251119</v>
+        <v>5.895328064028433</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3518722617598797</v>
+        <v>0.2750545855680997</v>
       </c>
       <c r="K9">
-        <v>1.320469009375614</v>
+        <v>0.9393705433123785</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.54011571303144</v>
+        <v>0.9647988458482075</v>
       </c>
       <c r="C10">
-        <v>0.1950619857568938</v>
+        <v>0.1085426937193006</v>
       </c>
       <c r="D10">
-        <v>0.07176058476408542</v>
+        <v>0.01636684744824635</v>
       </c>
       <c r="E10">
-        <v>0.07807420454299319</v>
+        <v>0.09091373834475291</v>
       </c>
       <c r="F10">
-        <v>10.00862718920339</v>
+        <v>6.264898806538895</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4134248664272633</v>
+        <v>0.2888577489139266</v>
       </c>
       <c r="K10">
-        <v>1.597244926934763</v>
+        <v>0.9843847241739923</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.664148945721507</v>
+        <v>0.9864146321402245</v>
       </c>
       <c r="C11">
-        <v>0.212670376237682</v>
+        <v>0.1106479643102176</v>
       </c>
       <c r="D11">
-        <v>0.07828217631696077</v>
+        <v>0.01655128841471054</v>
       </c>
       <c r="E11">
-        <v>0.08418978959920409</v>
+        <v>0.0912281300920732</v>
       </c>
       <c r="F11">
-        <v>10.65348544254084</v>
+        <v>6.433887887222681</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4424890560125476</v>
+        <v>0.2952681591439159</v>
       </c>
       <c r="K11">
-        <v>1.728885096514546</v>
+        <v>1.005846633160274</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.711974117056315</v>
+        <v>0.9947275553084864</v>
       </c>
       <c r="C12">
-        <v>0.2195006483770783</v>
+        <v>0.1114672482110137</v>
       </c>
       <c r="D12">
-        <v>0.0808172729123342</v>
+        <v>0.01663013705012872</v>
       </c>
       <c r="E12">
-        <v>0.08656450392507153</v>
+        <v>0.09136062820127933</v>
       </c>
       <c r="F12">
-        <v>10.90108728576797</v>
+        <v>6.498010456414306</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4536743797148546</v>
+        <v>0.2977147015141242</v>
       </c>
       <c r="K12">
-        <v>1.779702215644676</v>
+        <v>1.014116281974168</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.70163382206519</v>
+        <v>0.9929315368532343</v>
       </c>
       <c r="C13">
-        <v>0.2180219624636663</v>
+        <v>0.1112898161571252</v>
       </c>
       <c r="D13">
-        <v>0.08026818742118991</v>
+        <v>0.01661275208630997</v>
       </c>
       <c r="E13">
-        <v>0.08605030609972886</v>
+        <v>0.09133149370794058</v>
       </c>
       <c r="F13">
-        <v>10.84760094649505</v>
+        <v>6.484194647867582</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4512569816546375</v>
+        <v>0.2971869442579589</v>
       </c>
       <c r="K13">
-        <v>1.768712278680511</v>
+        <v>1.012328913499431</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.668065601875554</v>
+        <v>0.9870959820739245</v>
       </c>
       <c r="C14">
-        <v>0.2132288945793874</v>
+        <v>0.1107149239079632</v>
       </c>
       <c r="D14">
-        <v>0.07848935822411107</v>
+        <v>0.01655759378832045</v>
       </c>
       <c r="E14">
-        <v>0.08438392808988482</v>
+        <v>0.09123876108842666</v>
       </c>
       <c r="F14">
-        <v>10.67378417889131</v>
+        <v>6.439160653637373</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4434055199669871</v>
+        <v>0.2954690546328607</v>
       </c>
       <c r="K14">
-        <v>1.73304555609414</v>
+        <v>1.006524121277437</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.647619672385872</v>
+        <v>0.9835381609125022</v>
       </c>
       <c r="C15">
-        <v>0.2103149603552481</v>
+        <v>0.1103656653197618</v>
       </c>
       <c r="D15">
-        <v>0.07740866084506592</v>
+        <v>0.01652498603381503</v>
       </c>
       <c r="E15">
-        <v>0.08337115175686449</v>
+        <v>0.09118371187832608</v>
       </c>
       <c r="F15">
-        <v>10.56777727309128</v>
+        <v>6.41159312177723</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4386204781738314</v>
+        <v>0.2944192851355893</v>
       </c>
       <c r="K15">
-        <v>1.711329322437962</v>
+        <v>1.002987101509603</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532122465347726</v>
+        <v>0.9634040056862716</v>
       </c>
       <c r="C16">
-        <v>0.1939324970590803</v>
+        <v>0.1084081855212133</v>
       </c>
       <c r="D16">
-        <v>0.07134291392251413</v>
+        <v>0.01635604363829657</v>
       </c>
       <c r="E16">
-        <v>0.07768230759500838</v>
+        <v>0.09089507115395179</v>
       </c>
       <c r="F16">
-        <v>9.966930480366159</v>
+        <v>6.253872898396452</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4115490273586175</v>
+        <v>0.2884414706379346</v>
       </c>
       <c r="K16">
-        <v>1.588769084118212</v>
+        <v>0.9830020284994703</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.462654524526812</v>
+        <v>0.9512786805744895</v>
       </c>
       <c r="C17">
-        <v>0.1841434486414926</v>
+        <v>0.107246411866825</v>
       </c>
       <c r="D17">
-        <v>0.06772617150738114</v>
+        <v>0.01626824049650111</v>
       </c>
       <c r="E17">
-        <v>0.07428822602566498</v>
+        <v>0.09074190028689344</v>
       </c>
       <c r="F17">
-        <v>9.603809504572013</v>
+        <v>6.157342912812368</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3952316121505532</v>
+        <v>0.2848080270489675</v>
       </c>
       <c r="K17">
-        <v>1.515146374968595</v>
+        <v>0.9709946701608203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4231684781507</v>
+        <v>0.9443874646821087</v>
       </c>
       <c r="C18">
-        <v>0.1786011219080876</v>
+        <v>0.1065924851834978</v>
       </c>
       <c r="D18">
-        <v>0.06568083476751241</v>
+        <v>0.01622349853039395</v>
       </c>
       <c r="E18">
-        <v>0.07236873050067061</v>
+        <v>0.09066257037889258</v>
       </c>
       <c r="F18">
-        <v>9.396799068671413</v>
+        <v>6.101902953871473</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3859445920197402</v>
+        <v>0.2827305122227983</v>
       </c>
       <c r="K18">
-        <v>1.473330467614602</v>
+        <v>0.9641809884463157</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.409876387511389</v>
+        <v>0.9420684431741222</v>
       </c>
       <c r="C19">
-        <v>0.1767390068000907</v>
+        <v>0.1063735257958029</v>
       </c>
       <c r="D19">
-        <v>0.06499400602032779</v>
+        <v>0.01620933328191398</v>
       </c>
       <c r="E19">
-        <v>0.07172420946214686</v>
+        <v>0.09063721560814386</v>
       </c>
       <c r="F19">
-        <v>9.327011138170093</v>
+        <v>6.083145787751306</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3828163097212638</v>
+        <v>0.2820292163579978</v>
       </c>
       <c r="K19">
-        <v>1.459259302444877</v>
+        <v>0.9618898761130481</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.470000003818797</v>
+        <v>0.9525608520710875</v>
       </c>
       <c r="C20">
-        <v>0.1851762239947163</v>
+        <v>0.107368603724467</v>
       </c>
       <c r="D20">
-        <v>0.06810749132593941</v>
+        <v>0.01627698979125114</v>
       </c>
       <c r="E20">
-        <v>0.07464609364495445</v>
+        <v>0.09075729763082663</v>
       </c>
       <c r="F20">
-        <v>9.642269566457884</v>
+        <v>6.167610219651607</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3969582732152048</v>
+        <v>0.2851935342774965</v>
       </c>
       <c r="K20">
-        <v>1.522927820547835</v>
+        <v>0.9722632804258637</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.677901065725649</v>
+        <v>0.9888065601286371</v>
       </c>
       <c r="C21">
-        <v>0.214632108071001</v>
+        <v>0.1108831832363961</v>
       </c>
       <c r="D21">
-        <v>0.07900996939950744</v>
+        <v>0.0165735492242689</v>
       </c>
       <c r="E21">
-        <v>0.08487171523854542</v>
+        <v>0.09126563367223994</v>
       </c>
       <c r="F21">
-        <v>10.72474127171768</v>
+        <v>6.452384658763719</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4457065875752448</v>
+        <v>0.2959731217371768</v>
       </c>
       <c r="K21">
-        <v>1.743494219905728</v>
+        <v>1.008225255150762</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.818840911296292</v>
+        <v>1.013238698459986</v>
       </c>
       <c r="C22">
-        <v>0.2348442719452919</v>
+        <v>0.1133088664113018</v>
       </c>
       <c r="D22">
-        <v>0.0865235959928583</v>
+        <v>0.01681994346732552</v>
       </c>
       <c r="E22">
-        <v>0.0919026073167899</v>
+        <v>0.0916762480279445</v>
       </c>
       <c r="F22">
-        <v>11.45236779029688</v>
+        <v>6.639261763646573</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4786269708970821</v>
+        <v>0.3031293833486615</v>
       </c>
       <c r="K22">
-        <v>1.893371366314909</v>
+        <v>1.032559451972503</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.743108810187181</v>
+        <v>1.000130541618404</v>
       </c>
       <c r="C23">
-        <v>0.2239593290366741</v>
+        <v>0.1120023882721028</v>
       </c>
       <c r="D23">
-        <v>0.0824738170736552</v>
+        <v>0.01668356509190971</v>
       </c>
       <c r="E23">
-        <v>0.08811525191400449</v>
+        <v>0.09144990848897194</v>
       </c>
       <c r="F23">
-        <v>11.06197827399876</v>
+        <v>6.539450662569266</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4609499353041286</v>
+        <v>0.299299718228923</v>
       </c>
       <c r="K23">
-        <v>1.812802119671716</v>
+        <v>1.019495500402599</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.466677713984524</v>
+        <v>0.9519809338463858</v>
       </c>
       <c r="C24">
-        <v>0.1847090417078334</v>
+        <v>0.1073133172176455</v>
       </c>
       <c r="D24">
-        <v>0.06793499161726402</v>
+        <v>0.01627301637889644</v>
       </c>
       <c r="E24">
-        <v>0.07448420321714266</v>
+        <v>0.09075030930255679</v>
       </c>
       <c r="F24">
-        <v>9.624876352520175</v>
+        <v>6.162968194887128</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3961773586549242</v>
+        <v>0.2850192109637817</v>
       </c>
       <c r="K24">
-        <v>1.519408248620721</v>
+        <v>0.9716894629922308</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.186110131307515</v>
+        <v>0.9032122313031152</v>
       </c>
       <c r="C25">
-        <v>0.1456672081834682</v>
+        <v>0.1028010900067216</v>
       </c>
       <c r="D25">
-        <v>0.05355570971115498</v>
+        <v>0.01604964208171822</v>
       </c>
       <c r="E25">
-        <v>0.06100746798751544</v>
+        <v>0.09033080284452311</v>
       </c>
       <c r="F25">
-        <v>8.143785875204657</v>
+        <v>5.759966764273514</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3299917397065997</v>
+        <v>0.270086611577355</v>
       </c>
       <c r="K25">
-        <v>1.222781804000959</v>
+        <v>0.92366082240315</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8699934474986719</v>
+        <v>0.9907846933285214</v>
       </c>
       <c r="C2">
-        <v>0.09993956321308417</v>
+        <v>0.118986477498666</v>
       </c>
       <c r="D2">
-        <v>0.01606691811218752</v>
+        <v>0.04374997252538293</v>
       </c>
       <c r="E2">
-        <v>0.09030836886861948</v>
+        <v>0.05189033385259378</v>
       </c>
       <c r="F2">
-        <v>5.465644298827414</v>
+        <v>7.096020122547515</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2594876274752664</v>
+        <v>0.2836037778633056</v>
       </c>
       <c r="K2">
-        <v>0.8912979301012172</v>
+        <v>1.017013882773171</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8491418512583948</v>
+        <v>0.8638194522162905</v>
       </c>
       <c r="C3">
-        <v>0.09828364450103777</v>
+        <v>0.1018783934987368</v>
       </c>
       <c r="D3">
-        <v>0.01618851453896752</v>
+        <v>0.03745180627174705</v>
       </c>
       <c r="E3">
-        <v>0.09047103471657181</v>
+        <v>0.04611140139092029</v>
       </c>
       <c r="F3">
-        <v>5.267556758085533</v>
+        <v>6.405658329261911</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2525470512218391</v>
+        <v>0.2532863540174475</v>
       </c>
       <c r="K3">
-        <v>0.8712170596348301</v>
+        <v>0.8836136151629432</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8371533906245361</v>
+        <v>0.7880713750927839</v>
       </c>
       <c r="C4">
-        <v>0.09740540495576511</v>
+        <v>0.09176551405683142</v>
       </c>
       <c r="D4">
-        <v>0.01631623572598784</v>
+        <v>0.03371604587349708</v>
       </c>
       <c r="E4">
-        <v>0.09065840970488281</v>
+        <v>0.04273120044365797</v>
       </c>
       <c r="F4">
-        <v>5.146572118990235</v>
+        <v>5.989510357149982</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2484037763694573</v>
+        <v>0.2351262461477148</v>
       </c>
       <c r="K4">
-        <v>0.8597948119227965</v>
+        <v>0.8041696058172363</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8324722751297315</v>
+        <v>0.7576977269721681</v>
       </c>
       <c r="C5">
-        <v>0.09708217566171129</v>
+        <v>0.08773110199818746</v>
       </c>
       <c r="D5">
-        <v>0.01638145929810975</v>
+        <v>0.03222136153244293</v>
       </c>
       <c r="E5">
-        <v>0.09075674096207464</v>
+        <v>0.04139212486344945</v>
       </c>
       <c r="F5">
-        <v>5.097426765661965</v>
+        <v>5.821606172594841</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.246744946562103</v>
+        <v>0.2278272180898</v>
       </c>
       <c r="K5">
-        <v>0.8553676606779845</v>
+        <v>0.7723458681379327</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8317073021643466</v>
+        <v>0.7526823750994538</v>
       </c>
       <c r="C6">
-        <v>0.09703059227260269</v>
+        <v>0.08706610188828279</v>
       </c>
       <c r="D6">
-        <v>0.01639308057799482</v>
+        <v>0.03197469371104944</v>
       </c>
       <c r="E6">
-        <v>0.09077439521360731</v>
+        <v>0.04117198385080911</v>
       </c>
       <c r="F6">
-        <v>5.089275559796164</v>
+        <v>5.793819899810671</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.246471281852024</v>
+        <v>0.2266209828055565</v>
       </c>
       <c r="K6">
-        <v>0.8546462567320816</v>
+        <v>0.76709289163432</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8370894330473675</v>
+        <v>0.787659820920112</v>
       </c>
       <c r="C7">
-        <v>0.09740090565263415</v>
+        <v>0.09171076841988679</v>
       </c>
       <c r="D7">
-        <v>0.0163170622239619</v>
+        <v>0.03369578274833529</v>
       </c>
       <c r="E7">
-        <v>0.09065964689700934</v>
+        <v>0.04271299066152068</v>
       </c>
       <c r="F7">
-        <v>5.145908698422119</v>
+        <v>5.987239477505227</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2483812852033367</v>
+        <v>0.2350274148766118</v>
       </c>
       <c r="K7">
-        <v>0.8597341855507352</v>
+        <v>0.8037382785209672</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8626344308604246</v>
+        <v>0.9465099495381821</v>
       </c>
       <c r="C8">
-        <v>0.09933975414939766</v>
+        <v>0.1129988785013154</v>
       </c>
       <c r="D8">
-        <v>0.01609773145044713</v>
+        <v>0.0415477255703891</v>
       </c>
       <c r="E8">
-        <v>0.09034627862544653</v>
+        <v>0.04986041729484114</v>
       </c>
       <c r="F8">
-        <v>5.39720768037958</v>
+        <v>6.856209914750792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2570698762938122</v>
+        <v>0.2730476935505948</v>
       </c>
       <c r="K8">
-        <v>0.8841852675653001</v>
+        <v>0.9704622091819886</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9192199988744676</v>
+        <v>1.278635114022876</v>
       </c>
       <c r="C9">
-        <v>0.104248904238915</v>
+        <v>0.1584512148359494</v>
       </c>
       <c r="D9">
-        <v>0.01609618782162414</v>
+        <v>0.0582573879077799</v>
       </c>
       <c r="E9">
-        <v>0.09042750438570835</v>
+        <v>0.06540686590419398</v>
       </c>
       <c r="F9">
-        <v>5.895328064028433</v>
+        <v>8.635037368251062</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2750545855680997</v>
+        <v>0.3518722617599366</v>
       </c>
       <c r="K9">
-        <v>0.9393705433123785</v>
+        <v>1.3204690093755</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9647988458482075</v>
+        <v>1.540115713031611</v>
       </c>
       <c r="C10">
-        <v>0.1085426937193006</v>
+        <v>0.1950619857573628</v>
       </c>
       <c r="D10">
-        <v>0.01636684744824635</v>
+        <v>0.07176058476434832</v>
       </c>
       <c r="E10">
-        <v>0.09091373834475291</v>
+        <v>0.07807420454306779</v>
       </c>
       <c r="F10">
-        <v>6.264898806538895</v>
+        <v>10.00862718920337</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2888577489139266</v>
+        <v>0.4134248664271212</v>
       </c>
       <c r="K10">
-        <v>0.9843847241739923</v>
+        <v>1.597244926934621</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9864146321402245</v>
+        <v>1.664148945721564</v>
       </c>
       <c r="C11">
-        <v>0.1106479643102176</v>
+        <v>0.2126703762377531</v>
       </c>
       <c r="D11">
-        <v>0.01655128841471054</v>
+        <v>0.07828217631701051</v>
       </c>
       <c r="E11">
-        <v>0.0912281300920732</v>
+        <v>0.08418978959922541</v>
       </c>
       <c r="F11">
-        <v>6.433887887222681</v>
+        <v>10.65348544254073</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2952681591439159</v>
+        <v>0.4424890560125476</v>
       </c>
       <c r="K11">
-        <v>1.005846633160274</v>
+        <v>1.728885096514517</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9947275553084864</v>
+        <v>1.711974117056371</v>
       </c>
       <c r="C12">
-        <v>0.1114672482110137</v>
+        <v>0.2195006483761262</v>
       </c>
       <c r="D12">
-        <v>0.01663013705012872</v>
+        <v>0.08081727291221341</v>
       </c>
       <c r="E12">
-        <v>0.09136062820127933</v>
+        <v>0.0865645039251568</v>
       </c>
       <c r="F12">
-        <v>6.498010456414306</v>
+        <v>10.90108728576809</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2977147015141242</v>
+        <v>0.4536743797150251</v>
       </c>
       <c r="K12">
-        <v>1.014116281974168</v>
+        <v>1.779702215644733</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9929315368532343</v>
+        <v>1.701633822064878</v>
       </c>
       <c r="C13">
-        <v>0.1112898161571252</v>
+        <v>0.2180219624645048</v>
       </c>
       <c r="D13">
-        <v>0.01661275208630997</v>
+        <v>0.0802681874218365</v>
       </c>
       <c r="E13">
-        <v>0.09133149370794058</v>
+        <v>0.08605030609987807</v>
       </c>
       <c r="F13">
-        <v>6.484194647867582</v>
+        <v>10.84760094649505</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2971869442579589</v>
+        <v>0.451256981654538</v>
       </c>
       <c r="K13">
-        <v>1.012328913499431</v>
+        <v>1.768712278680539</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9870959820739245</v>
+        <v>1.668065601875554</v>
       </c>
       <c r="C14">
-        <v>0.1107149239079632</v>
+        <v>0.2132288945793448</v>
       </c>
       <c r="D14">
-        <v>0.01655759378832045</v>
+        <v>0.07848935822387659</v>
       </c>
       <c r="E14">
-        <v>0.09123876108842666</v>
+        <v>0.08438392808988127</v>
       </c>
       <c r="F14">
-        <v>6.439160653637373</v>
+        <v>10.67378417889131</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2954690546328607</v>
+        <v>0.4434055199668876</v>
       </c>
       <c r="K14">
-        <v>1.006524121277437</v>
+        <v>1.733045556094254</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9835381609125022</v>
+        <v>1.64761967238627</v>
       </c>
       <c r="C15">
-        <v>0.1103656653197618</v>
+        <v>0.2103149603561008</v>
       </c>
       <c r="D15">
-        <v>0.01652498603381503</v>
+        <v>0.07740866084517251</v>
       </c>
       <c r="E15">
-        <v>0.09118371187832608</v>
+        <v>0.08337115175687515</v>
       </c>
       <c r="F15">
-        <v>6.41159312177723</v>
+        <v>10.56777727309156</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2944192851355893</v>
+        <v>0.4386204781741583</v>
       </c>
       <c r="K15">
-        <v>1.002987101509603</v>
+        <v>1.711329322438019</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9634040056862716</v>
+        <v>1.532122465347584</v>
       </c>
       <c r="C16">
-        <v>0.1084081855212133</v>
+        <v>0.1939324970590519</v>
       </c>
       <c r="D16">
-        <v>0.01635604363829657</v>
+        <v>0.07134291392253544</v>
       </c>
       <c r="E16">
-        <v>0.09089507115395179</v>
+        <v>0.07768230759501904</v>
       </c>
       <c r="F16">
-        <v>6.253872898396452</v>
+        <v>9.96693048036613</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2884414706379346</v>
+        <v>0.4115490273586317</v>
       </c>
       <c r="K16">
-        <v>0.9830020284994703</v>
+        <v>1.588769084118127</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9512786805744895</v>
+        <v>1.462654524526727</v>
       </c>
       <c r="C17">
-        <v>0.107246411866825</v>
+        <v>0.184143448641052</v>
       </c>
       <c r="D17">
-        <v>0.01626824049650111</v>
+        <v>0.06772617150716087</v>
       </c>
       <c r="E17">
-        <v>0.09074190028689344</v>
+        <v>0.07428822602566854</v>
       </c>
       <c r="F17">
-        <v>6.157342912812368</v>
+        <v>9.603809504571927</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2848080270489675</v>
+        <v>0.3952316121505532</v>
       </c>
       <c r="K17">
-        <v>0.9709946701608203</v>
+        <v>1.515146374968595</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9443874646821087</v>
+        <v>1.423168478150558</v>
       </c>
       <c r="C18">
-        <v>0.1065924851834978</v>
+        <v>0.1786011219076755</v>
       </c>
       <c r="D18">
-        <v>0.01622349853039395</v>
+        <v>0.06568083476752662</v>
       </c>
       <c r="E18">
-        <v>0.09066257037889258</v>
+        <v>0.07236873050073456</v>
       </c>
       <c r="F18">
-        <v>6.101902953871473</v>
+        <v>9.396799068671356</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2827305122227983</v>
+        <v>0.3859445920196407</v>
       </c>
       <c r="K18">
-        <v>0.9641809884463157</v>
+        <v>1.473330467614545</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9420684431741222</v>
+        <v>1.409876387511218</v>
       </c>
       <c r="C19">
-        <v>0.1063735257958029</v>
+        <v>0.1767390067996928</v>
       </c>
       <c r="D19">
-        <v>0.01620933328191398</v>
+        <v>0.06499400602078964</v>
       </c>
       <c r="E19">
-        <v>0.09063721560814386</v>
+        <v>0.07172420946222147</v>
       </c>
       <c r="F19">
-        <v>6.083145787751306</v>
+        <v>9.327011138170093</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2820292163579978</v>
+        <v>0.3828163097213064</v>
       </c>
       <c r="K19">
-        <v>0.9618898761130481</v>
+        <v>1.459259302444792</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9525608520710875</v>
+        <v>1.470000003818569</v>
       </c>
       <c r="C20">
-        <v>0.107368603724467</v>
+        <v>0.1851762239946737</v>
       </c>
       <c r="D20">
-        <v>0.01627698979125114</v>
+        <v>0.0681074913265789</v>
       </c>
       <c r="E20">
-        <v>0.09075729763082663</v>
+        <v>0.07464609364493668</v>
       </c>
       <c r="F20">
-        <v>6.167610219651607</v>
+        <v>9.642269566457941</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2851935342774965</v>
+        <v>0.3969582732150201</v>
       </c>
       <c r="K20">
-        <v>0.9722632804258637</v>
+        <v>1.522927820548034</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9888065601286371</v>
+        <v>1.677901065725678</v>
       </c>
       <c r="C21">
-        <v>0.1108831832363961</v>
+        <v>0.214632108070461</v>
       </c>
       <c r="D21">
-        <v>0.0165735492242689</v>
+        <v>0.07900996939960692</v>
       </c>
       <c r="E21">
-        <v>0.09126563367223994</v>
+        <v>0.08487171523861292</v>
       </c>
       <c r="F21">
-        <v>6.452384658763719</v>
+        <v>10.72474127171796</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2959731217371768</v>
+        <v>0.4457065875753301</v>
       </c>
       <c r="K21">
-        <v>1.008225255150762</v>
+        <v>1.743494219905557</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013238698459986</v>
+        <v>1.818840911296519</v>
       </c>
       <c r="C22">
-        <v>0.1133088664113018</v>
+        <v>0.2348442719452635</v>
       </c>
       <c r="D22">
-        <v>0.01681994346732552</v>
+        <v>0.08652359599307147</v>
       </c>
       <c r="E22">
-        <v>0.0916762480279445</v>
+        <v>0.09190260731665845</v>
       </c>
       <c r="F22">
-        <v>6.639261763646573</v>
+        <v>11.45236779029693</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3031293833486615</v>
+        <v>0.4786269708970252</v>
       </c>
       <c r="K22">
-        <v>1.032559451972503</v>
+        <v>1.89337136631471</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000130541618404</v>
+        <v>1.743108810187351</v>
       </c>
       <c r="C23">
-        <v>0.1120023882721028</v>
+        <v>0.2239593290371289</v>
       </c>
       <c r="D23">
-        <v>0.01668356509190971</v>
+        <v>0.08247381707408863</v>
       </c>
       <c r="E23">
-        <v>0.09144990848897194</v>
+        <v>0.08811525191404712</v>
       </c>
       <c r="F23">
-        <v>6.539450662569266</v>
+        <v>11.06197827399876</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.299299718228923</v>
+        <v>0.4609499353041855</v>
       </c>
       <c r="K23">
-        <v>1.019495500402599</v>
+        <v>1.812802119671744</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9519809338463858</v>
+        <v>1.466677713984808</v>
       </c>
       <c r="C24">
-        <v>0.1073133172176455</v>
+        <v>0.1847090417079897</v>
       </c>
       <c r="D24">
-        <v>0.01627301637889644</v>
+        <v>0.06793499161674532</v>
       </c>
       <c r="E24">
-        <v>0.09075030930255679</v>
+        <v>0.07448420321722438</v>
       </c>
       <c r="F24">
-        <v>6.162968194887128</v>
+        <v>9.624876352519948</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2850192109637817</v>
+        <v>0.3961773586548247</v>
       </c>
       <c r="K24">
-        <v>0.9716894629922308</v>
+        <v>1.519408248620692</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9032122313031152</v>
+        <v>1.18611013130743</v>
       </c>
       <c r="C25">
-        <v>0.1028010900067216</v>
+        <v>0.1456672081834967</v>
       </c>
       <c r="D25">
-        <v>0.01604964208171822</v>
+        <v>0.05355570971133972</v>
       </c>
       <c r="E25">
-        <v>0.09033080284452311</v>
+        <v>0.06100746798755452</v>
       </c>
       <c r="F25">
-        <v>5.759966764273514</v>
+        <v>8.143785875204713</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.270086611577355</v>
+        <v>0.3299917397065713</v>
       </c>
       <c r="K25">
-        <v>0.92366082240315</v>
+        <v>1.222781804000959</v>
       </c>
       <c r="L25">
         <v>0</v>
